--- a/Output/April/productivity_TL_valid/productivity_TL_2022-04-27_valid.xlsx
+++ b/Output/April/productivity_TL_valid/productivity_TL_2022-04-27_valid.xlsx
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S8">
         <v>70</v>
       </c>
       <c r="T8">
-        <v>0.1142857142857143</v>
+        <v>0.1285714285714286</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1960,13 +1960,13 @@
         <v>7.466666666666667</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>70</v>
       </c>
       <c r="H8">
-        <v>0.1142857142857143</v>
+        <v>0.1285714285714286</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.1142857142857143</v>
+        <v>0.1285714285714286</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2357,7 +2357,7 @@
         <v>49</v>
       </c>
       <c r="D8">
-        <v>0.1142857142857143</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="E8">
         <v>1</v>
